--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Desktop\My Data\Website and Marketing\Software Development\Quotation generator\Phase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5594379-7546-44A9-8ECE-E6B0FB462CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87CC63-AF7A-40A5-BBB7-FB42C13767DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="57">
   <si>
     <t>Service</t>
   </si>
@@ -190,6 +190,9 @@
   <si>
     <t>FeeINR</t>
   </si>
+  <si>
+    <t>LIMITED COMPANY</t>
+  </si>
 </sst>
 </file>
 
@@ -207,6 +210,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -551,11 +555,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5159,6 +5161,464 @@
         <v>1</v>
       </c>
     </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>56</v>
+      </c>
+      <c r="D342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>56</v>
+      </c>
+      <c r="D343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" t="s">
+        <v>56</v>
+      </c>
+      <c r="D344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>56</v>
+      </c>
+      <c r="D345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>56</v>
+      </c>
+      <c r="D346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>56</v>
+      </c>
+      <c r="D347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>56</v>
+      </c>
+      <c r="D348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" t="s">
+        <v>56</v>
+      </c>
+      <c r="D349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" t="s">
+        <v>56</v>
+      </c>
+      <c r="D350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" t="s">
+        <v>56</v>
+      </c>
+      <c r="D351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" t="s">
+        <v>17</v>
+      </c>
+      <c r="C352" t="s">
+        <v>56</v>
+      </c>
+      <c r="D352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>18</v>
+      </c>
+      <c r="C353" t="s">
+        <v>56</v>
+      </c>
+      <c r="D353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>19</v>
+      </c>
+      <c r="C354" t="s">
+        <v>56</v>
+      </c>
+      <c r="D354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>20</v>
+      </c>
+      <c r="B355" t="s">
+        <v>21</v>
+      </c>
+      <c r="C355" t="s">
+        <v>56</v>
+      </c>
+      <c r="D355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>20</v>
+      </c>
+      <c r="B356" t="s">
+        <v>22</v>
+      </c>
+      <c r="C356" t="s">
+        <v>56</v>
+      </c>
+      <c r="D356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>20</v>
+      </c>
+      <c r="B357" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" t="s">
+        <v>56</v>
+      </c>
+      <c r="D357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>20</v>
+      </c>
+      <c r="B358" t="s">
+        <v>24</v>
+      </c>
+      <c r="C358" t="s">
+        <v>56</v>
+      </c>
+      <c r="D358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>25</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="s">
+        <v>56</v>
+      </c>
+      <c r="D359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+      <c r="B360" t="s">
+        <v>27</v>
+      </c>
+      <c r="C360" t="s">
+        <v>56</v>
+      </c>
+      <c r="D360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>25</v>
+      </c>
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" t="s">
+        <v>56</v>
+      </c>
+      <c r="D361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>25</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" t="s">
+        <v>56</v>
+      </c>
+      <c r="D362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>25</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363" t="s">
+        <v>56</v>
+      </c>
+      <c r="D363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>31</v>
+      </c>
+      <c r="B364" t="s">
+        <v>32</v>
+      </c>
+      <c r="C364" t="s">
+        <v>56</v>
+      </c>
+      <c r="D364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>31</v>
+      </c>
+      <c r="B365" t="s">
+        <v>33</v>
+      </c>
+      <c r="C365" t="s">
+        <v>56</v>
+      </c>
+      <c r="D365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" t="s">
+        <v>35</v>
+      </c>
+      <c r="C366" t="s">
+        <v>56</v>
+      </c>
+      <c r="D366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>34</v>
+      </c>
+      <c r="B367" t="s">
+        <v>36</v>
+      </c>
+      <c r="C367" t="s">
+        <v>56</v>
+      </c>
+      <c r="D367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>37</v>
+      </c>
+      <c r="C368" t="s">
+        <v>56</v>
+      </c>
+      <c r="D368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>38</v>
+      </c>
+      <c r="B369" t="s">
+        <v>39</v>
+      </c>
+      <c r="C369" t="s">
+        <v>56</v>
+      </c>
+      <c r="D369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>38</v>
+      </c>
+      <c r="B370" t="s">
+        <v>40</v>
+      </c>
+      <c r="C370" t="s">
+        <v>56</v>
+      </c>
+      <c r="D370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>38</v>
+      </c>
+      <c r="B371" t="s">
+        <v>41</v>
+      </c>
+      <c r="C371" t="s">
+        <v>56</v>
+      </c>
+      <c r="D371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>38</v>
+      </c>
+      <c r="B372" t="s">
+        <v>42</v>
+      </c>
+      <c r="C372" t="s">
+        <v>56</v>
+      </c>
+      <c r="D372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>38</v>
+      </c>
+      <c r="B373" t="s">
+        <v>43</v>
+      </c>
+      <c r="C373" t="s">
+        <v>56</v>
+      </c>
+      <c r="D373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>38</v>
+      </c>
+      <c r="B374" t="s">
+        <v>44</v>
+      </c>
+      <c r="C374" t="s">
+        <v>56</v>
+      </c>
+      <c r="D374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>38</v>
+      </c>
+      <c r="B375" t="s">
+        <v>45</v>
+      </c>
+      <c r="C375" t="s">
+        <v>56</v>
+      </c>
+      <c r="D375" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5166,11 +5626,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9763,6 +10231,464 @@
         <v>54</v>
       </c>
       <c r="D341">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>56</v>
+      </c>
+      <c r="D342">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>56</v>
+      </c>
+      <c r="D343">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" t="s">
+        <v>56</v>
+      </c>
+      <c r="D344">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>56</v>
+      </c>
+      <c r="D345">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>56</v>
+      </c>
+      <c r="D346">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>56</v>
+      </c>
+      <c r="D347">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>56</v>
+      </c>
+      <c r="D348">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" t="s">
+        <v>56</v>
+      </c>
+      <c r="D349">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" t="s">
+        <v>56</v>
+      </c>
+      <c r="D350">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" t="s">
+        <v>56</v>
+      </c>
+      <c r="D351">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" t="s">
+        <v>17</v>
+      </c>
+      <c r="C352" t="s">
+        <v>56</v>
+      </c>
+      <c r="D352">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>18</v>
+      </c>
+      <c r="C353" t="s">
+        <v>56</v>
+      </c>
+      <c r="D353">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>19</v>
+      </c>
+      <c r="C354" t="s">
+        <v>56</v>
+      </c>
+      <c r="D354">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>20</v>
+      </c>
+      <c r="B355" t="s">
+        <v>21</v>
+      </c>
+      <c r="C355" t="s">
+        <v>56</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>20</v>
+      </c>
+      <c r="B356" t="s">
+        <v>22</v>
+      </c>
+      <c r="C356" t="s">
+        <v>56</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>20</v>
+      </c>
+      <c r="B357" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" t="s">
+        <v>56</v>
+      </c>
+      <c r="D357">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>20</v>
+      </c>
+      <c r="B358" t="s">
+        <v>24</v>
+      </c>
+      <c r="C358" t="s">
+        <v>56</v>
+      </c>
+      <c r="D358">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>25</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="s">
+        <v>56</v>
+      </c>
+      <c r="D359">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+      <c r="B360" t="s">
+        <v>27</v>
+      </c>
+      <c r="C360" t="s">
+        <v>56</v>
+      </c>
+      <c r="D360">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>25</v>
+      </c>
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" t="s">
+        <v>56</v>
+      </c>
+      <c r="D361">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>25</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" t="s">
+        <v>56</v>
+      </c>
+      <c r="D362">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>25</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363" t="s">
+        <v>56</v>
+      </c>
+      <c r="D363">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>31</v>
+      </c>
+      <c r="B364" t="s">
+        <v>32</v>
+      </c>
+      <c r="C364" t="s">
+        <v>56</v>
+      </c>
+      <c r="D364">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>31</v>
+      </c>
+      <c r="B365" t="s">
+        <v>33</v>
+      </c>
+      <c r="C365" t="s">
+        <v>56</v>
+      </c>
+      <c r="D365">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" t="s">
+        <v>35</v>
+      </c>
+      <c r="C366" t="s">
+        <v>56</v>
+      </c>
+      <c r="D366">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>34</v>
+      </c>
+      <c r="B367" t="s">
+        <v>36</v>
+      </c>
+      <c r="C367" t="s">
+        <v>56</v>
+      </c>
+      <c r="D367">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>37</v>
+      </c>
+      <c r="C368" t="s">
+        <v>56</v>
+      </c>
+      <c r="D368">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>38</v>
+      </c>
+      <c r="B369" t="s">
+        <v>39</v>
+      </c>
+      <c r="C369" t="s">
+        <v>56</v>
+      </c>
+      <c r="D369">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>38</v>
+      </c>
+      <c r="B370" t="s">
+        <v>40</v>
+      </c>
+      <c r="C370" t="s">
+        <v>56</v>
+      </c>
+      <c r="D370">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>38</v>
+      </c>
+      <c r="B371" t="s">
+        <v>41</v>
+      </c>
+      <c r="C371" t="s">
+        <v>56</v>
+      </c>
+      <c r="D371">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>38</v>
+      </c>
+      <c r="B372" t="s">
+        <v>42</v>
+      </c>
+      <c r="C372" t="s">
+        <v>56</v>
+      </c>
+      <c r="D372">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>38</v>
+      </c>
+      <c r="B373" t="s">
+        <v>43</v>
+      </c>
+      <c r="C373" t="s">
+        <v>56</v>
+      </c>
+      <c r="D373">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>38</v>
+      </c>
+      <c r="B374" t="s">
+        <v>44</v>
+      </c>
+      <c r="C374" t="s">
+        <v>56</v>
+      </c>
+      <c r="D374">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>38</v>
+      </c>
+      <c r="B375" t="s">
+        <v>45</v>
+      </c>
+      <c r="C375" t="s">
+        <v>56</v>
+      </c>
+      <c r="D375">
         <v>2500</v>
       </c>
     </row>

--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Desktop\My Data\Website and Marketing\Software Development\Quotation generator\Phase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87CC63-AF7A-40A5-BBB7-FB42C13767DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D831DD2E-C948-44F0-A001-96D080818EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applicability" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="56">
   <si>
     <t>Service</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>FeeINR</t>
-  </si>
-  <si>
-    <t>LIMITED COMPANY</t>
   </si>
 </sst>
 </file>
@@ -555,9 +552,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5161,464 +5158,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>4</v>
-      </c>
-      <c r="C342" t="s">
-        <v>56</v>
-      </c>
-      <c r="D342" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>6</v>
-      </c>
-      <c r="B343" t="s">
-        <v>7</v>
-      </c>
-      <c r="C343" t="s">
-        <v>56</v>
-      </c>
-      <c r="D343" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>6</v>
-      </c>
-      <c r="B344" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" t="s">
-        <v>56</v>
-      </c>
-      <c r="D344" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>6</v>
-      </c>
-      <c r="B345" t="s">
-        <v>9</v>
-      </c>
-      <c r="C345" t="s">
-        <v>56</v>
-      </c>
-      <c r="D345" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>6</v>
-      </c>
-      <c r="B346" t="s">
-        <v>10</v>
-      </c>
-      <c r="C346" t="s">
-        <v>56</v>
-      </c>
-      <c r="D346" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>11</v>
-      </c>
-      <c r="C347" t="s">
-        <v>56</v>
-      </c>
-      <c r="D347" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>12</v>
-      </c>
-      <c r="C348" t="s">
-        <v>56</v>
-      </c>
-      <c r="D348" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>13</v>
-      </c>
-      <c r="B349" t="s">
-        <v>14</v>
-      </c>
-      <c r="C349" t="s">
-        <v>56</v>
-      </c>
-      <c r="D349" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>13</v>
-      </c>
-      <c r="B350" t="s">
-        <v>15</v>
-      </c>
-      <c r="C350" t="s">
-        <v>56</v>
-      </c>
-      <c r="D350" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>13</v>
-      </c>
-      <c r="B351" t="s">
-        <v>16</v>
-      </c>
-      <c r="C351" t="s">
-        <v>56</v>
-      </c>
-      <c r="D351" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>13</v>
-      </c>
-      <c r="B352" t="s">
-        <v>17</v>
-      </c>
-      <c r="C352" t="s">
-        <v>56</v>
-      </c>
-      <c r="D352" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>18</v>
-      </c>
-      <c r="C353" t="s">
-        <v>56</v>
-      </c>
-      <c r="D353" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>19</v>
-      </c>
-      <c r="C354" t="s">
-        <v>56</v>
-      </c>
-      <c r="D354" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>20</v>
-      </c>
-      <c r="B355" t="s">
-        <v>21</v>
-      </c>
-      <c r="C355" t="s">
-        <v>56</v>
-      </c>
-      <c r="D355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>20</v>
-      </c>
-      <c r="B356" t="s">
-        <v>22</v>
-      </c>
-      <c r="C356" t="s">
-        <v>56</v>
-      </c>
-      <c r="D356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>20</v>
-      </c>
-      <c r="B357" t="s">
-        <v>23</v>
-      </c>
-      <c r="C357" t="s">
-        <v>56</v>
-      </c>
-      <c r="D357" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>20</v>
-      </c>
-      <c r="B358" t="s">
-        <v>24</v>
-      </c>
-      <c r="C358" t="s">
-        <v>56</v>
-      </c>
-      <c r="D358" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>25</v>
-      </c>
-      <c r="B359" t="s">
-        <v>26</v>
-      </c>
-      <c r="C359" t="s">
-        <v>56</v>
-      </c>
-      <c r="D359" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>25</v>
-      </c>
-      <c r="B360" t="s">
-        <v>27</v>
-      </c>
-      <c r="C360" t="s">
-        <v>56</v>
-      </c>
-      <c r="D360" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>25</v>
-      </c>
-      <c r="B361" t="s">
-        <v>28</v>
-      </c>
-      <c r="C361" t="s">
-        <v>56</v>
-      </c>
-      <c r="D361" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>25</v>
-      </c>
-      <c r="B362" t="s">
-        <v>29</v>
-      </c>
-      <c r="C362" t="s">
-        <v>56</v>
-      </c>
-      <c r="D362" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>25</v>
-      </c>
-      <c r="B363" t="s">
-        <v>30</v>
-      </c>
-      <c r="C363" t="s">
-        <v>56</v>
-      </c>
-      <c r="D363" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>31</v>
-      </c>
-      <c r="B364" t="s">
-        <v>32</v>
-      </c>
-      <c r="C364" t="s">
-        <v>56</v>
-      </c>
-      <c r="D364" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>31</v>
-      </c>
-      <c r="B365" t="s">
-        <v>33</v>
-      </c>
-      <c r="C365" t="s">
-        <v>56</v>
-      </c>
-      <c r="D365" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>34</v>
-      </c>
-      <c r="B366" t="s">
-        <v>35</v>
-      </c>
-      <c r="C366" t="s">
-        <v>56</v>
-      </c>
-      <c r="D366" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>34</v>
-      </c>
-      <c r="B367" t="s">
-        <v>36</v>
-      </c>
-      <c r="C367" t="s">
-        <v>56</v>
-      </c>
-      <c r="D367" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>37</v>
-      </c>
-      <c r="C368" t="s">
-        <v>56</v>
-      </c>
-      <c r="D368" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>38</v>
-      </c>
-      <c r="B369" t="s">
-        <v>39</v>
-      </c>
-      <c r="C369" t="s">
-        <v>56</v>
-      </c>
-      <c r="D369" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>38</v>
-      </c>
-      <c r="B370" t="s">
-        <v>40</v>
-      </c>
-      <c r="C370" t="s">
-        <v>56</v>
-      </c>
-      <c r="D370" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>38</v>
-      </c>
-      <c r="B371" t="s">
-        <v>41</v>
-      </c>
-      <c r="C371" t="s">
-        <v>56</v>
-      </c>
-      <c r="D371" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>38</v>
-      </c>
-      <c r="B372" t="s">
-        <v>42</v>
-      </c>
-      <c r="C372" t="s">
-        <v>56</v>
-      </c>
-      <c r="D372" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>38</v>
-      </c>
-      <c r="B373" t="s">
-        <v>43</v>
-      </c>
-      <c r="C373" t="s">
-        <v>56</v>
-      </c>
-      <c r="D373" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>38</v>
-      </c>
-      <c r="B374" t="s">
-        <v>44</v>
-      </c>
-      <c r="C374" t="s">
-        <v>56</v>
-      </c>
-      <c r="D374" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>38</v>
-      </c>
-      <c r="B375" t="s">
-        <v>45</v>
-      </c>
-      <c r="C375" t="s">
-        <v>56</v>
-      </c>
-      <c r="D375" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5626,11 +5165,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10234,464 +9771,6 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>4</v>
-      </c>
-      <c r="C342" t="s">
-        <v>56</v>
-      </c>
-      <c r="D342">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>6</v>
-      </c>
-      <c r="B343" t="s">
-        <v>7</v>
-      </c>
-      <c r="C343" t="s">
-        <v>56</v>
-      </c>
-      <c r="D343">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>6</v>
-      </c>
-      <c r="B344" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" t="s">
-        <v>56</v>
-      </c>
-      <c r="D344">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>6</v>
-      </c>
-      <c r="B345" t="s">
-        <v>9</v>
-      </c>
-      <c r="C345" t="s">
-        <v>56</v>
-      </c>
-      <c r="D345">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>6</v>
-      </c>
-      <c r="B346" t="s">
-        <v>10</v>
-      </c>
-      <c r="C346" t="s">
-        <v>56</v>
-      </c>
-      <c r="D346">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>11</v>
-      </c>
-      <c r="C347" t="s">
-        <v>56</v>
-      </c>
-      <c r="D347">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>12</v>
-      </c>
-      <c r="C348" t="s">
-        <v>56</v>
-      </c>
-      <c r="D348">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>13</v>
-      </c>
-      <c r="B349" t="s">
-        <v>14</v>
-      </c>
-      <c r="C349" t="s">
-        <v>56</v>
-      </c>
-      <c r="D349">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>13</v>
-      </c>
-      <c r="B350" t="s">
-        <v>15</v>
-      </c>
-      <c r="C350" t="s">
-        <v>56</v>
-      </c>
-      <c r="D350">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>13</v>
-      </c>
-      <c r="B351" t="s">
-        <v>16</v>
-      </c>
-      <c r="C351" t="s">
-        <v>56</v>
-      </c>
-      <c r="D351">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>13</v>
-      </c>
-      <c r="B352" t="s">
-        <v>17</v>
-      </c>
-      <c r="C352" t="s">
-        <v>56</v>
-      </c>
-      <c r="D352">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>18</v>
-      </c>
-      <c r="C353" t="s">
-        <v>56</v>
-      </c>
-      <c r="D353">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>19</v>
-      </c>
-      <c r="C354" t="s">
-        <v>56</v>
-      </c>
-      <c r="D354">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>20</v>
-      </c>
-      <c r="B355" t="s">
-        <v>21</v>
-      </c>
-      <c r="C355" t="s">
-        <v>56</v>
-      </c>
-      <c r="D355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>20</v>
-      </c>
-      <c r="B356" t="s">
-        <v>22</v>
-      </c>
-      <c r="C356" t="s">
-        <v>56</v>
-      </c>
-      <c r="D356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>20</v>
-      </c>
-      <c r="B357" t="s">
-        <v>23</v>
-      </c>
-      <c r="C357" t="s">
-        <v>56</v>
-      </c>
-      <c r="D357">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>20</v>
-      </c>
-      <c r="B358" t="s">
-        <v>24</v>
-      </c>
-      <c r="C358" t="s">
-        <v>56</v>
-      </c>
-      <c r="D358">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>25</v>
-      </c>
-      <c r="B359" t="s">
-        <v>26</v>
-      </c>
-      <c r="C359" t="s">
-        <v>56</v>
-      </c>
-      <c r="D359">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>25</v>
-      </c>
-      <c r="B360" t="s">
-        <v>27</v>
-      </c>
-      <c r="C360" t="s">
-        <v>56</v>
-      </c>
-      <c r="D360">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>25</v>
-      </c>
-      <c r="B361" t="s">
-        <v>28</v>
-      </c>
-      <c r="C361" t="s">
-        <v>56</v>
-      </c>
-      <c r="D361">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>25</v>
-      </c>
-      <c r="B362" t="s">
-        <v>29</v>
-      </c>
-      <c r="C362" t="s">
-        <v>56</v>
-      </c>
-      <c r="D362">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>25</v>
-      </c>
-      <c r="B363" t="s">
-        <v>30</v>
-      </c>
-      <c r="C363" t="s">
-        <v>56</v>
-      </c>
-      <c r="D363">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>31</v>
-      </c>
-      <c r="B364" t="s">
-        <v>32</v>
-      </c>
-      <c r="C364" t="s">
-        <v>56</v>
-      </c>
-      <c r="D364">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>31</v>
-      </c>
-      <c r="B365" t="s">
-        <v>33</v>
-      </c>
-      <c r="C365" t="s">
-        <v>56</v>
-      </c>
-      <c r="D365">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>34</v>
-      </c>
-      <c r="B366" t="s">
-        <v>35</v>
-      </c>
-      <c r="C366" t="s">
-        <v>56</v>
-      </c>
-      <c r="D366">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>34</v>
-      </c>
-      <c r="B367" t="s">
-        <v>36</v>
-      </c>
-      <c r="C367" t="s">
-        <v>56</v>
-      </c>
-      <c r="D367">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>37</v>
-      </c>
-      <c r="C368" t="s">
-        <v>56</v>
-      </c>
-      <c r="D368">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>38</v>
-      </c>
-      <c r="B369" t="s">
-        <v>39</v>
-      </c>
-      <c r="C369" t="s">
-        <v>56</v>
-      </c>
-      <c r="D369">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>38</v>
-      </c>
-      <c r="B370" t="s">
-        <v>40</v>
-      </c>
-      <c r="C370" t="s">
-        <v>56</v>
-      </c>
-      <c r="D370">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>38</v>
-      </c>
-      <c r="B371" t="s">
-        <v>41</v>
-      </c>
-      <c r="C371" t="s">
-        <v>56</v>
-      </c>
-      <c r="D371">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>38</v>
-      </c>
-      <c r="B372" t="s">
-        <v>42</v>
-      </c>
-      <c r="C372" t="s">
-        <v>56</v>
-      </c>
-      <c r="D372">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>38</v>
-      </c>
-      <c r="B373" t="s">
-        <v>43</v>
-      </c>
-      <c r="C373" t="s">
-        <v>56</v>
-      </c>
-      <c r="D373">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>38</v>
-      </c>
-      <c r="B374" t="s">
-        <v>44</v>
-      </c>
-      <c r="C374" t="s">
-        <v>56</v>
-      </c>
-      <c r="D374">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>38</v>
-      </c>
-      <c r="B375" t="s">
-        <v>45</v>
-      </c>
-      <c r="C375" t="s">
-        <v>56</v>
-      </c>
-      <c r="D375">
-        <v>2500</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
